--- a/HSP_ATL1.xlsx
+++ b/HSP_ATL1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15195" windowHeight="8445" activeTab="2"/>
+    <workbookView xWindow="12720" yWindow="960" windowWidth="15195" windowHeight="8445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="08.05.12-10.10.13" sheetId="2" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="136">
   <si>
     <t>Gene</t>
   </si>
@@ -849,33 +849,6 @@
   </si>
   <si>
     <t>Back-up primer</t>
-  </si>
-  <si>
-    <t>AT?L1</t>
-  </si>
-  <si>
-    <t>3?</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>TCATTCCCCAPAAGTTCTGCT</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>E123!6C12</t>
-  </si>
-  <si>
-    <t>13th October</t>
-  </si>
-  <si>
-    <t>?*&amp;</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1173,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1478,6 +1451,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1906,18 +1885,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="1:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -2034,10 +2013,10 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -2047,7 +2026,7 @@
       <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="133">
         <v>14</v>
       </c>
       <c r="G4" s="38" t="s">
@@ -2056,17 +2035,17 @@
       <c r="H4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J4" s="42">
         <v>40935</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="133">
         <v>397</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="45"/>
       <c r="O4" s="31" t="s">
         <v>90</v>
@@ -2099,8 +2078,8 @@
       <c r="AI4" s="34"/>
     </row>
     <row r="5" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="39" t="s">
         <v>10</v>
       </c>
@@ -2108,20 +2087,20 @@
       <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="129"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="43">
         <v>40935</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
       <c r="N5" s="45"/>
       <c r="O5" s="35" t="s">
         <v>90</v>
@@ -2154,10 +2133,10 @@
       <c r="AI5" s="37"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="135">
         <v>3</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -2167,7 +2146,7 @@
       <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="133">
         <v>14</v>
       </c>
       <c r="G6" s="38" t="s">
@@ -2176,17 +2155,17 @@
       <c r="H6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J6" s="42">
         <v>40935</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="133">
         <v>539</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="45"/>
       <c r="O6" s="31" t="s">
         <v>90</v>
@@ -2219,8 +2198,8 @@
       <c r="AI6" s="34"/>
     </row>
     <row r="7" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="39" t="s">
         <v>10</v>
       </c>
@@ -2228,20 +2207,20 @@
       <c r="E7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="131"/>
       <c r="J7" s="43">
         <v>40935</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
       <c r="N7" s="45"/>
       <c r="O7" s="35" t="s">
         <v>90</v>
@@ -2274,10 +2253,10 @@
       <c r="AI7" s="37"/>
     </row>
     <row r="8" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="133">
+      <c r="B8" s="135">
         <v>4</v>
       </c>
       <c r="C8" s="38" t="s">
@@ -2287,7 +2266,7 @@
       <c r="E8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="133">
         <v>14</v>
       </c>
       <c r="G8" s="38" t="s">
@@ -2296,17 +2275,17 @@
       <c r="H8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J8" s="42">
         <v>40935</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="133">
         <v>360</v>
       </c>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="45"/>
       <c r="O8" s="31" t="s">
         <v>90</v>
@@ -2339,8 +2318,8 @@
       <c r="AI8" s="34"/>
     </row>
     <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="39" t="s">
         <v>10</v>
       </c>
@@ -2348,20 +2327,20 @@
       <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="132"/>
+      <c r="F9" s="134"/>
       <c r="G9" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="129"/>
+      <c r="I9" s="131"/>
       <c r="J9" s="43">
         <v>40935</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="45"/>
       <c r="O9" s="35" t="s">
         <v>90</v>
@@ -2394,10 +2373,10 @@
       <c r="AI9" s="37"/>
     </row>
     <row r="10" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="135">
         <v>5</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -2407,7 +2386,7 @@
       <c r="E10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="133">
         <v>14</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -2416,17 +2395,17 @@
       <c r="H10" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="42">
         <v>40935</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="132">
         <v>478</v>
       </c>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="45"/>
       <c r="O10" s="31" t="s">
         <v>90</v>
@@ -2459,8 +2438,8 @@
       <c r="AI10" s="34"/>
     </row>
     <row r="11" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
       </c>
@@ -2468,20 +2447,20 @@
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="43">
         <v>40935</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="45"/>
       <c r="O11" s="35" t="s">
         <v>90</v>
@@ -2514,10 +2493,10 @@
       <c r="AI11" s="37"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="135">
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
@@ -2527,7 +2506,7 @@
       <c r="E12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="133">
         <v>14</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -2536,17 +2515,17 @@
       <c r="H12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="I12" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J12" s="42">
         <v>40935</v>
       </c>
-      <c r="K12" s="130">
+      <c r="K12" s="132">
         <v>362</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="45"/>
       <c r="O12" s="31" t="s">
         <v>90</v>
@@ -2579,8 +2558,8 @@
       <c r="AI12" s="34"/>
     </row>
     <row r="13" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
@@ -2588,20 +2567,20 @@
       <c r="E13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="134"/>
       <c r="G13" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="129"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="43">
         <v>40935</v>
       </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35" t="s">
         <v>90</v>
@@ -2634,10 +2613,10 @@
       <c r="AI13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="135">
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -2647,7 +2626,7 @@
       <c r="E14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="133">
         <v>14</v>
       </c>
       <c r="G14" s="38" t="s">
@@ -2656,17 +2635,17 @@
       <c r="H14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="I14" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J14" s="42">
         <v>40935</v>
       </c>
-      <c r="K14" s="130">
+      <c r="K14" s="132">
         <v>500</v>
       </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="45"/>
       <c r="O14" s="31" t="s">
         <v>90</v>
@@ -2699,8 +2678,8 @@
       <c r="AI14" s="34"/>
     </row>
     <row r="15" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
@@ -2708,20 +2687,20 @@
       <c r="E15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="132"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="129"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="43">
         <v>40935</v>
       </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35" t="s">
         <v>90</v>
@@ -2754,10 +2733,10 @@
       <c r="AI15" s="37"/>
     </row>
     <row r="16" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="135">
         <v>8</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -2767,7 +2746,7 @@
       <c r="E16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="133">
         <v>14</v>
       </c>
       <c r="G16" s="38" t="s">
@@ -2776,17 +2755,17 @@
       <c r="H16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="I16" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J16" s="42">
         <v>40935</v>
       </c>
-      <c r="K16" s="130">
+      <c r="K16" s="132">
         <v>313</v>
       </c>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
       <c r="N16" s="45"/>
       <c r="O16" s="31" t="s">
         <v>90</v>
@@ -2819,8 +2798,8 @@
       <c r="AI16" s="34"/>
     </row>
     <row r="17" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="39" t="s">
         <v>10</v>
       </c>
@@ -2828,20 +2807,20 @@
       <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="132"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="129"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="43">
         <v>40935</v>
       </c>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35" t="s">
         <v>90</v>
@@ -2874,10 +2853,10 @@
       <c r="AI17" s="37"/>
     </row>
     <row r="18" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="135">
         <v>9</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -2887,7 +2866,7 @@
       <c r="E18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="133">
         <v>14</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -2896,17 +2875,17 @@
       <c r="H18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="129" t="s">
+      <c r="I18" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="42">
         <v>40935</v>
       </c>
-      <c r="K18" s="130">
+      <c r="K18" s="132">
         <v>498</v>
       </c>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="21"/>
       <c r="O18" s="31" t="s">
         <v>90</v>
@@ -2939,8 +2918,8 @@
       <c r="AI18" s="34"/>
     </row>
     <row r="19" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="39" t="s">
         <v>10</v>
       </c>
@@ -2948,20 +2927,20 @@
       <c r="E19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="43">
         <v>40935</v>
       </c>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="21"/>
       <c r="O19" s="35" t="s">
         <v>90</v>
@@ -2994,10 +2973,10 @@
       <c r="AI19" s="37"/>
     </row>
     <row r="20" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="135">
         <v>10</v>
       </c>
       <c r="C20" s="38" t="s">
@@ -3007,7 +2986,7 @@
       <c r="E20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="133">
         <v>14</v>
       </c>
       <c r="G20" s="38" t="s">
@@ -3016,17 +2995,17 @@
       <c r="H20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="129" t="s">
+      <c r="I20" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="42">
         <v>40935</v>
       </c>
-      <c r="K20" s="130">
+      <c r="K20" s="132">
         <v>323</v>
       </c>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="21"/>
       <c r="O20" s="31" t="s">
         <v>90</v>
@@ -3059,8 +3038,8 @@
       <c r="AI20" s="34"/>
     </row>
     <row r="21" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="39" t="s">
         <v>10</v>
       </c>
@@ -3068,20 +3047,20 @@
       <c r="E21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="129"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="43">
         <v>40935</v>
       </c>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="21"/>
       <c r="O21" s="35" t="s">
         <v>90</v>
@@ -3114,10 +3093,10 @@
       <c r="AI21" s="37"/>
     </row>
     <row r="22" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="135">
         <v>11</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -3127,7 +3106,7 @@
       <c r="E22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="133">
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
@@ -3136,17 +3115,17 @@
       <c r="H22" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="129" t="s">
+      <c r="I22" s="131" t="s">
         <v>89</v>
       </c>
       <c r="J22" s="42">
         <v>40935</v>
       </c>
-      <c r="K22" s="130">
+      <c r="K22" s="132">
         <v>305</v>
       </c>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="21"/>
       <c r="O22" s="31" t="s">
         <v>90</v>
@@ -3179,8 +3158,8 @@
       <c r="AI22" s="34"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="39" t="s">
         <v>10</v>
       </c>
@@ -3188,20 +3167,20 @@
       <c r="E23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="129"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="43">
         <v>40935</v>
       </c>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
       <c r="N23" s="21"/>
       <c r="O23" s="35" t="s">
         <v>90</v>
@@ -3234,10 +3213,10 @@
       <c r="AI23" s="37"/>
     </row>
     <row r="24" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="135">
         <v>12</v>
       </c>
       <c r="C24" s="38" t="s">
@@ -3247,7 +3226,7 @@
       <c r="E24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="131">
+      <c r="F24" s="133">
         <v>14</v>
       </c>
       <c r="G24" s="38" t="s">
@@ -3256,17 +3235,17 @@
       <c r="H24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="129" t="s">
+      <c r="I24" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J24" s="42">
         <v>40935</v>
       </c>
-      <c r="K24" s="130">
+      <c r="K24" s="132">
         <v>300</v>
       </c>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="N24" s="21"/>
       <c r="O24" s="31" t="s">
         <v>90</v>
@@ -3299,8 +3278,8 @@
       <c r="AI24" s="34"/>
     </row>
     <row r="25" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="39" t="s">
         <v>10</v>
       </c>
@@ -3308,20 +3287,20 @@
       <c r="E25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="132"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="129"/>
+      <c r="I25" s="131"/>
       <c r="J25" s="43">
         <v>40935</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
       <c r="N25" s="21"/>
       <c r="O25" s="35" t="s">
         <v>90</v>
@@ -3354,10 +3333,10 @@
       <c r="AI25" s="37"/>
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="135">
         <v>13</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -3367,7 +3346,7 @@
       <c r="E26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="133">
         <v>14</v>
       </c>
       <c r="G26" s="38" t="s">
@@ -3376,17 +3355,17 @@
       <c r="H26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="129" t="s">
+      <c r="I26" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J26" s="42">
         <v>40935</v>
       </c>
-      <c r="K26" s="130">
+      <c r="K26" s="132">
         <v>695</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="N26" s="21"/>
       <c r="O26" s="31" t="s">
         <v>90</v>
@@ -3419,8 +3398,8 @@
       <c r="AI26" s="34"/>
     </row>
     <row r="27" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="39" t="s">
         <v>10</v>
       </c>
@@ -3428,20 +3407,20 @@
       <c r="E27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="132"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="129"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="43">
         <v>40935</v>
       </c>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
       <c r="N27" s="21"/>
       <c r="O27" s="35" t="s">
         <v>90</v>
@@ -3474,10 +3453,10 @@
       <c r="AI27" s="37"/>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="133">
+      <c r="B28" s="135">
         <v>14</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -3487,7 +3466,7 @@
       <c r="E28" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="133">
         <v>14</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -3496,16 +3475,16 @@
       <c r="H28" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="129" t="s">
+      <c r="I28" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J28" s="42">
         <v>40935</v>
       </c>
-      <c r="K28" s="130">
+      <c r="K28" s="132">
         <v>368</v>
       </c>
-      <c r="L28" s="130"/>
+      <c r="L28" s="132"/>
       <c r="M28" s="56" t="s">
         <v>95</v>
       </c>
@@ -3541,8 +3520,8 @@
       <c r="AI28" s="34"/>
     </row>
     <row r="29" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="39" t="s">
         <v>10</v>
       </c>
@@ -3550,19 +3529,19 @@
       <c r="E29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="132"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="129"/>
+      <c r="I29" s="131"/>
       <c r="J29" s="43">
         <v>40935</v>
       </c>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
       <c r="M29" s="55"/>
       <c r="N29" s="21"/>
       <c r="O29" s="35" t="s">
@@ -3596,10 +3575,10 @@
       <c r="AI29" s="37"/>
     </row>
     <row r="30" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="133">
+      <c r="B30" s="135">
         <v>15</v>
       </c>
       <c r="C30" s="38" t="s">
@@ -3609,7 +3588,7 @@
       <c r="E30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="133">
         <v>14</v>
       </c>
       <c r="G30" s="38" t="s">
@@ -3618,17 +3597,17 @@
       <c r="H30" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="129" t="s">
+      <c r="I30" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J30" s="42">
         <v>40935</v>
       </c>
-      <c r="K30" s="130">
+      <c r="K30" s="132">
         <v>362</v>
       </c>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
       <c r="N30" s="21"/>
       <c r="O30" s="31" t="s">
         <v>90</v>
@@ -3661,8 +3640,8 @@
       <c r="AI30" s="34"/>
     </row>
     <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
@@ -3670,20 +3649,20 @@
       <c r="E31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="132"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="129"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="43">
         <v>40935</v>
       </c>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="21"/>
       <c r="O31" s="35" t="s">
         <v>90</v>
@@ -3900,18 +3879,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -3998,10 +3977,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -4011,7 +3990,7 @@
       <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="133">
         <v>14</v>
       </c>
       <c r="G4" s="38" t="s">
@@ -4020,17 +3999,17 @@
       <c r="H4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J4" s="42">
         <v>40935</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="133">
         <v>397</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="45"/>
       <c r="O4" s="31" t="s">
         <v>90</v>
@@ -4050,8 +4029,8 @@
       <c r="Z4" s="47"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="39" t="s">
         <v>10</v>
       </c>
@@ -4059,20 +4038,20 @@
       <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="132"/>
+      <c r="F5" s="134"/>
       <c r="G5" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="129"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="43">
         <v>40935</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
       <c r="N5" s="45"/>
       <c r="O5" s="35" t="s">
         <v>90</v>
@@ -4092,10 +4071,10 @@
       <c r="Z5" s="47"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="135">
         <v>3</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4105,7 +4084,7 @@
       <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="133">
         <v>14</v>
       </c>
       <c r="G6" s="38" t="s">
@@ -4114,17 +4093,17 @@
       <c r="H6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J6" s="42">
         <v>40935</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="133">
         <v>539</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="45"/>
       <c r="O6" s="31" t="s">
         <v>90</v>
@@ -4144,8 +4123,8 @@
       <c r="Z6" s="47"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="39" t="s">
         <v>10</v>
       </c>
@@ -4153,20 +4132,20 @@
       <c r="E7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="131"/>
       <c r="J7" s="43">
         <v>40935</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
       <c r="N7" s="45"/>
       <c r="O7" s="35" t="s">
         <v>90</v>
@@ -4186,10 +4165,10 @@
       <c r="Z7" s="47"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="133">
+      <c r="B8" s="135">
         <v>4</v>
       </c>
       <c r="C8" s="38" t="s">
@@ -4199,7 +4178,7 @@
       <c r="E8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="133">
         <v>14</v>
       </c>
       <c r="G8" s="38" t="s">
@@ -4208,17 +4187,17 @@
       <c r="H8" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J8" s="42">
         <v>40935</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="133">
         <v>360</v>
       </c>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="45"/>
       <c r="O8" s="31" t="s">
         <v>90</v>
@@ -4238,8 +4217,8 @@
       <c r="Z8" s="47"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="39" t="s">
         <v>10</v>
       </c>
@@ -4247,20 +4226,20 @@
       <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="132"/>
+      <c r="F9" s="134"/>
       <c r="G9" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="129"/>
+      <c r="I9" s="131"/>
       <c r="J9" s="43">
         <v>40935</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="45"/>
       <c r="O9" s="35" t="s">
         <v>90</v>
@@ -4280,10 +4259,10 @@
       <c r="Z9" s="47"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="135">
         <v>5</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -4293,7 +4272,7 @@
       <c r="E10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="133">
         <v>14</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -4302,17 +4281,17 @@
       <c r="H10" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="42">
         <v>40935</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="132">
         <v>478</v>
       </c>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="45"/>
       <c r="O10" s="31" t="s">
         <v>90</v>
@@ -4332,8 +4311,8 @@
       <c r="Z10" s="47"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
       </c>
@@ -4341,20 +4320,20 @@
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="43">
         <v>40935</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="45"/>
       <c r="O11" s="35" t="s">
         <v>90</v>
@@ -4374,10 +4353,10 @@
       <c r="Z11" s="47"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="135">
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
@@ -4387,7 +4366,7 @@
       <c r="E12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="133">
         <v>14</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -4396,17 +4375,17 @@
       <c r="H12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="I12" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J12" s="42">
         <v>40935</v>
       </c>
-      <c r="K12" s="130">
+      <c r="K12" s="132">
         <v>362</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="45"/>
       <c r="O12" s="31" t="s">
         <v>90</v>
@@ -4426,8 +4405,8 @@
       <c r="Z12" s="47"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
@@ -4435,20 +4414,20 @@
       <c r="E13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="132"/>
+      <c r="F13" s="134"/>
       <c r="G13" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="129"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="43">
         <v>40935</v>
       </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35" t="s">
         <v>90</v>
@@ -4468,10 +4447,10 @@
       <c r="Z13" s="47"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="135">
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -4481,7 +4460,7 @@
       <c r="E14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="133">
         <v>14</v>
       </c>
       <c r="G14" s="38" t="s">
@@ -4490,17 +4469,17 @@
       <c r="H14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="I14" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J14" s="42">
         <v>40935</v>
       </c>
-      <c r="K14" s="130">
+      <c r="K14" s="132">
         <v>500</v>
       </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="45"/>
       <c r="O14" s="31" t="s">
         <v>90</v>
@@ -4520,8 +4499,8 @@
       <c r="Z14" s="47"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
@@ -4529,20 +4508,20 @@
       <c r="E15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="132"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="129"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="43">
         <v>40935</v>
       </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35" t="s">
         <v>90</v>
@@ -4562,10 +4541,10 @@
       <c r="Z15" s="47"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="135">
         <v>8</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -4575,7 +4554,7 @@
       <c r="E16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="133">
         <v>14</v>
       </c>
       <c r="G16" s="38" t="s">
@@ -4584,17 +4563,17 @@
       <c r="H16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="I16" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J16" s="42">
         <v>40935</v>
       </c>
-      <c r="K16" s="130">
+      <c r="K16" s="132">
         <v>313</v>
       </c>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
       <c r="N16" s="45"/>
       <c r="O16" s="31" t="s">
         <v>90</v>
@@ -4614,8 +4593,8 @@
       <c r="Z16" s="47"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="39" t="s">
         <v>10</v>
       </c>
@@ -4623,20 +4602,20 @@
       <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="132"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="129"/>
+      <c r="I17" s="131"/>
       <c r="J17" s="43">
         <v>40935</v>
       </c>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35" t="s">
         <v>90</v>
@@ -4656,10 +4635,10 @@
       <c r="Z17" s="47"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="135">
         <v>9</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -4669,7 +4648,7 @@
       <c r="E18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="133">
         <v>14</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -4678,17 +4657,17 @@
       <c r="H18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="129" t="s">
+      <c r="I18" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="42">
         <v>40935</v>
       </c>
-      <c r="K18" s="130">
+      <c r="K18" s="132">
         <v>498</v>
       </c>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="21"/>
       <c r="O18" s="31" t="s">
         <v>90</v>
@@ -4707,8 +4686,8 @@
       <c r="Y18"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="39" t="s">
         <v>10</v>
       </c>
@@ -4716,20 +4695,20 @@
       <c r="E19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="43">
         <v>40935</v>
       </c>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="21"/>
       <c r="O19" s="35" t="s">
         <v>90</v>
@@ -4748,10 +4727,10 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="135">
         <v>10</v>
       </c>
       <c r="C20" s="38" t="s">
@@ -4761,7 +4740,7 @@
       <c r="E20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="133">
         <v>14</v>
       </c>
       <c r="G20" s="38" t="s">
@@ -4770,17 +4749,17 @@
       <c r="H20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="129" t="s">
+      <c r="I20" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="42">
         <v>40935</v>
       </c>
-      <c r="K20" s="130">
+      <c r="K20" s="132">
         <v>323</v>
       </c>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="21"/>
       <c r="O20" s="31" t="s">
         <v>90</v>
@@ -4799,8 +4778,8 @@
       <c r="Y20"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="39" t="s">
         <v>10</v>
       </c>
@@ -4808,20 +4787,20 @@
       <c r="E21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="129"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="43">
         <v>40935</v>
       </c>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="21"/>
       <c r="O21" s="35" t="s">
         <v>90</v>
@@ -4840,10 +4819,10 @@
       <c r="Y21"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="135">
         <v>11</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -4853,7 +4832,7 @@
       <c r="E22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="133">
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
@@ -4862,17 +4841,17 @@
       <c r="H22" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="129" t="s">
+      <c r="I22" s="131" t="s">
         <v>89</v>
       </c>
       <c r="J22" s="42">
         <v>40935</v>
       </c>
-      <c r="K22" s="130">
+      <c r="K22" s="132">
         <v>305</v>
       </c>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="21"/>
       <c r="O22" s="31" t="s">
         <v>90</v>
@@ -4891,8 +4870,8 @@
       <c r="Y22"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="39" t="s">
         <v>10</v>
       </c>
@@ -4900,20 +4879,20 @@
       <c r="E23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="129"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="43">
         <v>40935</v>
       </c>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
       <c r="N23" s="21"/>
       <c r="O23" s="35" t="s">
         <v>90</v>
@@ -4932,10 +4911,10 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="135">
         <v>12</v>
       </c>
       <c r="C24" s="38" t="s">
@@ -4945,7 +4924,7 @@
       <c r="E24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="131">
+      <c r="F24" s="133">
         <v>14</v>
       </c>
       <c r="G24" s="38" t="s">
@@ -4954,17 +4933,17 @@
       <c r="H24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="129" t="s">
+      <c r="I24" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J24" s="42">
         <v>40935</v>
       </c>
-      <c r="K24" s="130">
+      <c r="K24" s="132">
         <v>300</v>
       </c>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="N24" s="21"/>
       <c r="O24" s="31" t="s">
         <v>90</v>
@@ -4983,8 +4962,8 @@
       <c r="Y24"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="39" t="s">
         <v>10</v>
       </c>
@@ -4992,20 +4971,20 @@
       <c r="E25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="132"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="129"/>
+      <c r="I25" s="131"/>
       <c r="J25" s="43">
         <v>40935</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
       <c r="N25" s="21"/>
       <c r="O25" s="35" t="s">
         <v>90</v>
@@ -5024,10 +5003,10 @@
       <c r="Y25"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="135">
         <v>13</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5037,7 +5016,7 @@
       <c r="E26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="133">
         <v>14</v>
       </c>
       <c r="G26" s="38" t="s">
@@ -5046,17 +5025,17 @@
       <c r="H26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="129" t="s">
+      <c r="I26" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J26" s="42">
         <v>40935</v>
       </c>
-      <c r="K26" s="130">
+      <c r="K26" s="132">
         <v>695</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="N26" s="21"/>
       <c r="O26" s="31" t="s">
         <v>90</v>
@@ -5075,8 +5054,8 @@
       <c r="Y26"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="39" t="s">
         <v>10</v>
       </c>
@@ -5084,20 +5063,20 @@
       <c r="E27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="132"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="129"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="43">
         <v>40935</v>
       </c>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
       <c r="N27" s="21"/>
       <c r="O27" s="35" t="s">
         <v>90</v>
@@ -5116,10 +5095,10 @@
       <c r="Y27"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="133">
+      <c r="B28" s="135">
         <v>14</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -5131,7 +5110,7 @@
       <c r="E28" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="133">
         <v>14</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -5140,17 +5119,17 @@
       <c r="H28" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="129" t="s">
+      <c r="I28" s="131" t="s">
         <v>93</v>
       </c>
       <c r="J28" s="42">
         <v>41548</v>
       </c>
-      <c r="K28" s="130">
+      <c r="K28" s="132">
         <v>296</v>
       </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
       <c r="N28" s="21"/>
       <c r="O28" s="31" t="s">
         <v>90</v>
@@ -5169,8 +5148,8 @@
       <c r="Y28"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="39" t="s">
         <v>10</v>
       </c>
@@ -5178,20 +5157,20 @@
       <c r="E29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="132"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="129"/>
+      <c r="I29" s="131"/>
       <c r="J29" s="43">
         <v>40935</v>
       </c>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
       <c r="N29" s="21"/>
       <c r="O29" s="35" t="s">
         <v>90</v>
@@ -5210,10 +5189,10 @@
       <c r="Y29"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="133">
+      <c r="B30" s="135">
         <v>15</v>
       </c>
       <c r="C30" s="38" t="s">
@@ -5223,7 +5202,7 @@
       <c r="E30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="133">
         <v>14</v>
       </c>
       <c r="G30" s="38" t="s">
@@ -5232,17 +5211,17 @@
       <c r="H30" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="129" t="s">
+      <c r="I30" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J30" s="42">
         <v>40935</v>
       </c>
-      <c r="K30" s="130">
+      <c r="K30" s="132">
         <v>362</v>
       </c>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
       <c r="N30" s="21"/>
       <c r="O30" s="31" t="s">
         <v>90</v>
@@ -5261,8 +5240,8 @@
       <c r="Y30"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
@@ -5270,20 +5249,20 @@
       <c r="E31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="132"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="129"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="43">
         <v>40935</v>
       </c>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="21"/>
       <c r="O31" s="35" t="s">
         <v>90</v>
@@ -5339,10 +5318,10 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="137" t="s">
+      <c r="A36" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="137">
+      <c r="B36" s="139">
         <v>14</v>
       </c>
       <c r="C36" s="38" t="s">
@@ -5352,7 +5331,7 @@
       <c r="E36" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="131">
+      <c r="F36" s="133">
         <v>14</v>
       </c>
       <c r="G36" s="38" t="s">
@@ -5361,17 +5340,17 @@
       <c r="H36" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="140" t="s">
+      <c r="I36" s="142" t="s">
         <v>88</v>
       </c>
       <c r="J36" s="42">
         <v>40935</v>
       </c>
-      <c r="K36" s="130">
+      <c r="K36" s="132">
         <v>368</v>
       </c>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
       <c r="N36" s="21"/>
       <c r="O36" s="31" t="s">
         <v>90</v>
@@ -5400,8 +5379,8 @@
       <c r="AI36" s="53"/>
     </row>
     <row r="37" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="138"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="39" t="s">
         <v>10</v>
       </c>
@@ -5409,20 +5388,20 @@
       <c r="E37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="132"/>
+      <c r="F37" s="134"/>
       <c r="G37" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="141"/>
+      <c r="I37" s="143"/>
       <c r="J37" s="43">
         <v>40935</v>
       </c>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
       <c r="N37" s="21"/>
       <c r="O37" s="35" t="s">
         <v>90</v>
@@ -5574,7 +5553,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5607,18 +5586,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="1:28" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -5709,10 +5688,10 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="135" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="38" t="s">
@@ -5722,7 +5701,7 @@
       <c r="E4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="133">
         <v>14</v>
       </c>
       <c r="G4" s="38" t="s">
@@ -5731,17 +5710,17 @@
       <c r="H4" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J4" s="42">
         <v>40935</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="133">
         <v>397</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
       <c r="N4" s="45"/>
       <c r="O4" s="31" t="s">
         <v>90</v>
@@ -5761,8 +5740,8 @@
       <c r="Z4" s="47"/>
     </row>
     <row r="5" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="39" t="s">
         <v>10</v>
       </c>
@@ -5770,20 +5749,20 @@
       <c r="E5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="132"/>
-      <c r="G5" s="39" t="s">
-        <v>141</v>
+      <c r="F5" s="134"/>
+      <c r="G5" s="130" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="129"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="43">
         <v>40935</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
       <c r="N5" s="45"/>
       <c r="O5" s="35" t="s">
         <v>90</v>
@@ -5803,11 +5782,11 @@
       <c r="Z5" s="47"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>137</v>
+      <c r="B6" s="135">
+        <v>3</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>9</v>
@@ -5816,7 +5795,7 @@
       <c r="E6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="133">
         <v>14</v>
       </c>
       <c r="G6" s="38" t="s">
@@ -5825,19 +5804,17 @@
       <c r="H6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J6" s="42">
         <v>40935</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="133">
         <v>539</v>
       </c>
-      <c r="L6" s="131">
-        <v>300</v>
-      </c>
-      <c r="M6" s="131"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="45"/>
       <c r="O6" s="31" t="s">
         <v>90</v>
@@ -5857,8 +5834,8 @@
       <c r="Z6" s="47"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="39" t="s">
         <v>10</v>
       </c>
@@ -5866,20 +5843,20 @@
       <c r="E7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="132"/>
+      <c r="F7" s="134"/>
       <c r="G7" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="131"/>
       <c r="J7" s="43">
         <v>40935</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
       <c r="N7" s="45"/>
       <c r="O7" s="35" t="s">
         <v>90</v>
@@ -5899,22 +5876,20 @@
       <c r="Z7" s="47"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="133">
+      <c r="A8" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="135">
         <v>4</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>139</v>
-      </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="133">
         <v>14</v>
       </c>
       <c r="G8" s="38" t="s">
@@ -5923,17 +5898,17 @@
       <c r="H8" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="129" t="s">
+      <c r="I8" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" s="131">
+      <c r="J8" s="128">
+        <v>42290</v>
+      </c>
+      <c r="K8" s="133">
         <v>360</v>
       </c>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
       <c r="N8" s="45"/>
       <c r="O8" s="31" t="s">
         <v>90</v>
@@ -5953,8 +5928,8 @@
       <c r="Z8" s="47"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="39" t="s">
         <v>10</v>
       </c>
@@ -5962,20 +5937,20 @@
       <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="132"/>
+      <c r="F9" s="134"/>
       <c r="G9" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="129"/>
+      <c r="I9" s="131"/>
       <c r="J9" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
       <c r="N9" s="45"/>
       <c r="O9" s="35" t="s">
         <v>90</v>
@@ -5995,20 +5970,20 @@
       <c r="Z9" s="47"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="135">
         <v>5</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>138</v>
+      <c r="C10" s="129" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="131">
+      <c r="F10" s="133">
         <v>14</v>
       </c>
       <c r="G10" s="38" t="s">
@@ -6017,17 +5992,17 @@
       <c r="H10" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J10" s="42">
         <v>40935</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="132">
         <v>478</v>
       </c>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="45"/>
       <c r="O10" s="31" t="s">
         <v>90</v>
@@ -6047,8 +6022,8 @@
       <c r="Z10" s="47"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
       </c>
@@ -6056,20 +6031,20 @@
       <c r="E11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="132"/>
+      <c r="F11" s="134"/>
       <c r="G11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="129"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="43">
         <v>40935</v>
       </c>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="45"/>
       <c r="O11" s="35" t="s">
         <v>90</v>
@@ -6089,10 +6064,10 @@
       <c r="Z11" s="47"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="135">
         <v>6</v>
       </c>
       <c r="C12" s="38" t="s">
@@ -6102,7 +6077,7 @@
       <c r="E12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="131">
+      <c r="F12" s="133">
         <v>14</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -6111,17 +6086,17 @@
       <c r="H12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="129" t="s">
+      <c r="I12" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J12" s="42">
         <v>40935</v>
       </c>
-      <c r="K12" s="130">
+      <c r="K12" s="132">
         <v>362</v>
       </c>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="45"/>
       <c r="O12" s="31" t="s">
         <v>90</v>
@@ -6141,29 +6116,29 @@
       <c r="Z12" s="47"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="132"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="134"/>
       <c r="G13" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="129"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="43">
         <v>40935</v>
       </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
       <c r="N13" s="45"/>
       <c r="O13" s="35" t="s">
         <v>90</v>
@@ -6183,10 +6158,10 @@
       <c r="Z13" s="47"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="135">
         <v>7</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -6196,7 +6171,7 @@
       <c r="E14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="133">
         <v>14</v>
       </c>
       <c r="G14" s="38" t="s">
@@ -6205,17 +6180,17 @@
       <c r="H14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="I14" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J14" s="42">
         <v>40935</v>
       </c>
-      <c r="K14" s="130">
-        <v>5000</v>
-      </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
+      <c r="K14" s="132">
+        <v>500</v>
+      </c>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="45"/>
       <c r="O14" s="31" t="s">
         <v>90</v>
@@ -6235,8 +6210,8 @@
       <c r="Z14" s="47"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
@@ -6244,20 +6219,20 @@
       <c r="E15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="132"/>
+      <c r="F15" s="134"/>
       <c r="G15" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="129"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="43">
         <v>40935</v>
       </c>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35" t="s">
         <v>90</v>
@@ -6277,10 +6252,10 @@
       <c r="Z15" s="47"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="135">
         <v>8</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -6290,7 +6265,7 @@
       <c r="E16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="133">
         <v>14</v>
       </c>
       <c r="G16" s="38" t="s">
@@ -6299,17 +6274,17 @@
       <c r="H16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="I16" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J16" s="42">
         <v>40935</v>
       </c>
-      <c r="K16" s="130">
+      <c r="K16" s="132">
         <v>313</v>
       </c>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
       <c r="N16" s="45"/>
       <c r="O16" s="31" t="s">
         <v>90</v>
@@ -6329,8 +6304,8 @@
       <c r="Z16" s="47"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="39" t="s">
         <v>10</v>
       </c>
@@ -6338,20 +6313,20 @@
       <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="132"/>
+      <c r="F17" s="134"/>
       <c r="G17" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="129"/>
+        <v>65</v>
+      </c>
+      <c r="I17" s="131"/>
       <c r="J17" s="43">
         <v>40935</v>
       </c>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="45"/>
       <c r="O17" s="35" t="s">
         <v>90</v>
@@ -6371,10 +6346,10 @@
       <c r="Z17" s="47"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="135">
         <v>9</v>
       </c>
       <c r="C18" s="38" t="s">
@@ -6384,7 +6359,7 @@
       <c r="E18" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="131">
+      <c r="F18" s="133">
         <v>14</v>
       </c>
       <c r="G18" s="38" t="s">
@@ -6393,17 +6368,17 @@
       <c r="H18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="129" t="s">
+      <c r="I18" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="42">
         <v>40935</v>
       </c>
-      <c r="K18" s="130">
+      <c r="K18" s="132">
         <v>498</v>
       </c>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="21"/>
       <c r="O18" s="31" t="s">
         <v>90</v>
@@ -6422,8 +6397,8 @@
       <c r="Y18"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="39" t="s">
         <v>10</v>
       </c>
@@ -6431,20 +6406,20 @@
       <c r="E19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="129"/>
+      <c r="I19" s="131"/>
       <c r="J19" s="43">
         <v>40935</v>
       </c>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="21"/>
       <c r="O19" s="35" t="s">
         <v>90</v>
@@ -6463,10 +6438,10 @@
       <c r="Y19"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="135">
         <v>10</v>
       </c>
       <c r="C20" s="38" t="s">
@@ -6476,7 +6451,7 @@
       <c r="E20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="133">
         <v>14</v>
       </c>
       <c r="G20" s="38" t="s">
@@ -6485,17 +6460,17 @@
       <c r="H20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="129" t="s">
+      <c r="I20" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J20" s="42">
         <v>40935</v>
       </c>
-      <c r="K20" s="130">
+      <c r="K20" s="132">
         <v>323</v>
       </c>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="21"/>
       <c r="O20" s="31" t="s">
         <v>90</v>
@@ -6514,8 +6489,8 @@
       <c r="Y20"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="39" t="s">
         <v>10</v>
       </c>
@@ -6523,20 +6498,20 @@
       <c r="E21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="132"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="129"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="43">
         <v>40935</v>
       </c>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="21"/>
       <c r="O21" s="35" t="s">
         <v>90</v>
@@ -6555,10 +6530,10 @@
       <c r="Y21"/>
     </row>
     <row r="22" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="135">
         <v>11</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -6568,7 +6543,7 @@
       <c r="E22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="133">
         <v>14</v>
       </c>
       <c r="G22" s="38" t="s">
@@ -6577,17 +6552,17 @@
       <c r="H22" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="129" t="s">
+      <c r="I22" s="131" t="s">
         <v>89</v>
       </c>
       <c r="J22" s="42">
         <v>40935</v>
       </c>
-      <c r="K22" s="130">
+      <c r="K22" s="132">
         <v>305</v>
       </c>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="21"/>
       <c r="O22" s="31" t="s">
         <v>90</v>
@@ -6606,8 +6581,8 @@
       <c r="Y22"/>
     </row>
     <row r="23" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="39" t="s">
         <v>10</v>
       </c>
@@ -6615,20 +6590,20 @@
       <c r="E23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="134"/>
       <c r="G23" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="129"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="43">
         <v>40935</v>
       </c>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
       <c r="N23" s="21"/>
       <c r="O23" s="35" t="s">
         <v>90</v>
@@ -6647,10 +6622,10 @@
       <c r="Y23"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="135">
         <v>12</v>
       </c>
       <c r="C24" s="38" t="s">
@@ -6660,7 +6635,7 @@
       <c r="E24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="131">
+      <c r="F24" s="133">
         <v>14</v>
       </c>
       <c r="G24" s="38" t="s">
@@ -6669,17 +6644,17 @@
       <c r="H24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="129" t="s">
+      <c r="I24" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J24" s="42">
         <v>40935</v>
       </c>
-      <c r="K24" s="130">
+      <c r="K24" s="132">
         <v>300</v>
       </c>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="N24" s="21"/>
       <c r="O24" s="31" t="s">
         <v>90</v>
@@ -6698,8 +6673,8 @@
       <c r="Y24"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
+      <c r="A25" s="135"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="39" t="s">
         <v>10</v>
       </c>
@@ -6707,20 +6682,20 @@
       <c r="E25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="132"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="129"/>
+      <c r="I25" s="131"/>
       <c r="J25" s="43">
         <v>40935</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
       <c r="N25" s="21"/>
       <c r="O25" s="35" t="s">
         <v>90</v>
@@ -6739,10 +6714,10 @@
       <c r="Y25"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="135">
         <v>13</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -6752,7 +6727,7 @@
       <c r="E26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="133">
         <v>14</v>
       </c>
       <c r="G26" s="38" t="s">
@@ -6761,17 +6736,17 @@
       <c r="H26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="129" t="s">
+      <c r="I26" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J26" s="42">
         <v>40935</v>
       </c>
-      <c r="K26" s="130">
+      <c r="K26" s="132">
         <v>695</v>
       </c>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="N26" s="21"/>
       <c r="O26" s="31" t="s">
         <v>90</v>
@@ -6790,8 +6765,8 @@
       <c r="Y26"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="39" t="s">
         <v>10</v>
       </c>
@@ -6799,20 +6774,20 @@
       <c r="E27" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="132"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="129"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="43">
         <v>40935</v>
       </c>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
       <c r="N27" s="21"/>
       <c r="O27" s="35" t="s">
         <v>90</v>
@@ -6831,10 +6806,10 @@
       <c r="Y27"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="133">
+      <c r="B28" s="135">
         <v>14</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -6846,7 +6821,7 @@
       <c r="E28" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="131">
+      <c r="F28" s="133">
         <v>14</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -6855,17 +6830,17 @@
       <c r="H28" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="129" t="s">
+      <c r="I28" s="131" t="s">
         <v>93</v>
       </c>
       <c r="J28" s="42">
         <v>41548</v>
       </c>
-      <c r="K28" s="144" t="s">
-        <v>144</v>
-      </c>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
+      <c r="K28" s="146">
+        <v>296</v>
+      </c>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
       <c r="N28" s="21"/>
       <c r="O28" s="31" t="s">
         <v>90</v>
@@ -6884,8 +6859,8 @@
       <c r="Y28"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="39" t="s">
         <v>10</v>
       </c>
@@ -6893,20 +6868,20 @@
       <c r="E29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="132"/>
+      <c r="F29" s="134"/>
       <c r="G29" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="129"/>
+      <c r="I29" s="131"/>
       <c r="J29" s="43">
         <v>40935</v>
       </c>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
       <c r="N29" s="21"/>
       <c r="O29" s="35" t="s">
         <v>90</v>
@@ -6925,10 +6900,10 @@
       <c r="Y29"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="133">
+      <c r="B30" s="135">
         <v>15</v>
       </c>
       <c r="C30" s="38" t="s">
@@ -6938,7 +6913,7 @@
       <c r="E30" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="131">
+      <c r="F30" s="133">
         <v>14</v>
       </c>
       <c r="G30" s="38" t="s">
@@ -6947,17 +6922,17 @@
       <c r="H30" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="129" t="s">
+      <c r="I30" s="131" t="s">
         <v>88</v>
       </c>
       <c r="J30" s="42">
         <v>40935</v>
       </c>
-      <c r="K30" s="130">
+      <c r="K30" s="132">
         <v>362</v>
       </c>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
       <c r="N30" s="21"/>
       <c r="O30" s="31" t="s">
         <v>90</v>
@@ -6976,8 +6951,8 @@
       <c r="Y30"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
@@ -6985,20 +6960,20 @@
       <c r="E31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="132"/>
+      <c r="F31" s="134"/>
       <c r="G31" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="129"/>
+      <c r="I31" s="131"/>
       <c r="J31" s="43">
         <v>40935</v>
       </c>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="21"/>
       <c r="O31" s="35" t="s">
         <v>90</v>
@@ -7017,10 +6992,10 @@
       <c r="Y31"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="137">
+      <c r="B32" s="139">
         <v>14</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -7030,7 +7005,7 @@
       <c r="E32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="133">
         <v>14</v>
       </c>
       <c r="G32" s="38" t="s">
@@ -7039,17 +7014,17 @@
       <c r="H32" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="140" t="s">
+      <c r="I32" s="142" t="s">
         <v>88</v>
       </c>
       <c r="J32" s="42">
         <v>40935</v>
       </c>
-      <c r="K32" s="130">
+      <c r="K32" s="132">
         <v>368</v>
       </c>
-      <c r="L32" s="130"/>
-      <c r="M32" s="142" t="s">
+      <c r="L32" s="132"/>
+      <c r="M32" s="144" t="s">
         <v>135</v>
       </c>
       <c r="N32" s="21"/>
@@ -7073,8 +7048,8 @@
       <c r="AB32" s="51"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="138"/>
-      <c r="B33" s="139"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="39" t="s">
         <v>10</v>
       </c>
@@ -7082,20 +7057,20 @@
       <c r="E33" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="132"/>
+      <c r="F33" s="134"/>
       <c r="G33" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="141"/>
+      <c r="I33" s="143"/>
       <c r="J33" s="43">
         <v>40935</v>
       </c>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="143"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="145"/>
       <c r="N33" s="21"/>
       <c r="O33" s="35" t="s">
         <v>90</v>
@@ -7287,10 +7262,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="147" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="81" t="s">
@@ -7300,7 +7275,7 @@
       <c r="E4" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="147">
+      <c r="F4" s="149">
         <v>14</v>
       </c>
       <c r="G4" s="81" t="s">
@@ -7312,8 +7287,8 @@
       <c r="K4" s="87"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="88" t="s">
         <v>10</v>
       </c>
@@ -7321,7 +7296,7 @@
       <c r="E5" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="150"/>
       <c r="G5" s="88" t="s">
         <v>29</v>
       </c>
@@ -7331,10 +7306,10 @@
       <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="147">
         <v>3</v>
       </c>
       <c r="C6" s="81" t="s">
@@ -7344,7 +7319,7 @@
       <c r="E6" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="149">
         <v>14</v>
       </c>
       <c r="G6" s="81" t="s">
@@ -7356,8 +7331,8 @@
       <c r="K6" s="64"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="88" t="s">
         <v>10</v>
       </c>
@@ -7365,7 +7340,7 @@
       <c r="E7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="148"/>
+      <c r="F7" s="150"/>
       <c r="G7" s="88" t="s">
         <v>29</v>
       </c>
@@ -7375,10 +7350,10 @@
       <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="147">
         <v>4</v>
       </c>
       <c r="C8" s="81" t="s">
@@ -7388,7 +7363,7 @@
       <c r="E8" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="149">
         <v>14</v>
       </c>
       <c r="G8" s="81" t="s">
@@ -7400,8 +7375,8 @@
       <c r="K8" s="69"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="88" t="s">
         <v>10</v>
       </c>
@@ -7409,7 +7384,7 @@
       <c r="E9" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="148"/>
+      <c r="F9" s="150"/>
       <c r="G9" s="88" t="s">
         <v>29</v>
       </c>
@@ -7419,10 +7394,10 @@
       <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="147">
         <v>5</v>
       </c>
       <c r="C10" s="81" t="s">
@@ -7432,7 +7407,7 @@
       <c r="E10" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="147">
+      <c r="F10" s="149">
         <v>14</v>
       </c>
       <c r="G10" s="81" t="s">
@@ -7444,8 +7419,8 @@
       <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="145"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="88" t="s">
         <v>10</v>
       </c>
@@ -7453,7 +7428,7 @@
       <c r="E11" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="148"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="88" t="s">
         <v>29</v>
       </c>
@@ -7463,10 +7438,10 @@
       <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="145">
+      <c r="B12" s="147">
         <v>6</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -7476,7 +7451,7 @@
       <c r="E12" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="147">
+      <c r="F12" s="149">
         <v>14</v>
       </c>
       <c r="G12" s="81" t="s">
@@ -7488,8 +7463,8 @@
       <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="145"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="148"/>
       <c r="C13" s="88" t="s">
         <v>10</v>
       </c>
@@ -7497,7 +7472,7 @@
       <c r="E13" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="148"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="88" t="s">
         <v>29</v>
       </c>
@@ -7507,10 +7482,10 @@
       <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="147">
         <v>7</v>
       </c>
       <c r="C14" s="81" t="s">
@@ -7520,7 +7495,7 @@
       <c r="E14" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="147">
+      <c r="F14" s="149">
         <v>14</v>
       </c>
       <c r="G14" s="81" t="s">
@@ -7532,8 +7507,8 @@
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="145"/>
-      <c r="B15" s="146"/>
+      <c r="A15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="88" t="s">
         <v>10</v>
       </c>
@@ -7541,7 +7516,7 @@
       <c r="E15" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="148"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="88" t="s">
         <v>29</v>
       </c>
@@ -7551,10 +7526,10 @@
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="145">
+      <c r="B16" s="147">
         <v>8</v>
       </c>
       <c r="C16" s="81" t="s">
@@ -7564,7 +7539,7 @@
       <c r="E16" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="147">
+      <c r="F16" s="149">
         <v>14</v>
       </c>
       <c r="G16" s="99" t="s">
@@ -7576,8 +7551,8 @@
       <c r="K16" s="69"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="147"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="88" t="s">
         <v>10</v>
       </c>
@@ -7585,7 +7560,7 @@
       <c r="E17" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="148"/>
+      <c r="F17" s="150"/>
       <c r="G17" s="102" t="s">
         <v>29</v>
       </c>
@@ -7595,10 +7570,10 @@
       <c r="K17" s="72"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="145">
+      <c r="B18" s="147">
         <v>9</v>
       </c>
       <c r="C18" s="81" t="s">
@@ -7608,7 +7583,7 @@
       <c r="E18" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="147">
+      <c r="F18" s="149">
         <v>14</v>
       </c>
       <c r="G18" s="81" t="s">
@@ -7620,8 +7595,8 @@
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="88" t="s">
         <v>10</v>
       </c>
@@ -7629,7 +7604,7 @@
       <c r="E19" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="148"/>
+      <c r="F19" s="150"/>
       <c r="G19" s="88" t="s">
         <v>29</v>
       </c>
@@ -7639,10 +7614,10 @@
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="145">
+      <c r="B20" s="147">
         <v>10</v>
       </c>
       <c r="C20" s="81" t="s">
@@ -7652,7 +7627,7 @@
       <c r="E20" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="147">
+      <c r="F20" s="149">
         <v>14</v>
       </c>
       <c r="G20" s="81" t="s">
@@ -7664,8 +7639,8 @@
       <c r="K20" s="69"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="88" t="s">
         <v>10</v>
       </c>
@@ -7673,7 +7648,7 @@
       <c r="E21" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="148"/>
+      <c r="F21" s="150"/>
       <c r="G21" s="88" t="s">
         <v>29</v>
       </c>
@@ -7683,10 +7658,10 @@
       <c r="K21" s="72"/>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="145">
+      <c r="B22" s="147">
         <v>11</v>
       </c>
       <c r="C22" s="81" t="s">
@@ -7696,7 +7671,7 @@
       <c r="E22" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="147">
+      <c r="F22" s="149">
         <v>14</v>
       </c>
       <c r="G22" s="81" t="s">
@@ -7708,8 +7683,8 @@
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="88" t="s">
         <v>10</v>
       </c>
@@ -7717,7 +7692,7 @@
       <c r="E23" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="148"/>
+      <c r="F23" s="150"/>
       <c r="G23" s="88" t="s">
         <v>29</v>
       </c>
@@ -7727,10 +7702,10 @@
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="145">
+      <c r="B24" s="147">
         <v>12</v>
       </c>
       <c r="C24" s="81" t="s">
@@ -7740,7 +7715,7 @@
       <c r="E24" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="147">
+      <c r="F24" s="149">
         <v>14</v>
       </c>
       <c r="G24" s="81" t="s">
@@ -7752,8 +7727,8 @@
       <c r="K24" s="69"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="88" t="s">
         <v>10</v>
       </c>
@@ -7761,7 +7736,7 @@
       <c r="E25" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="148"/>
+      <c r="F25" s="150"/>
       <c r="G25" s="88" t="s">
         <v>29</v>
       </c>
@@ -7771,10 +7746,10 @@
       <c r="K25" s="72"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="149">
+      <c r="B26" s="151">
         <v>13</v>
       </c>
       <c r="C26" s="105" t="s">
@@ -7784,7 +7759,7 @@
       <c r="E26" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="153">
         <v>14</v>
       </c>
       <c r="G26" s="105" t="s">
@@ -7798,8 +7773,8 @@
       <c r="K26" s="75"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="149"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="106" t="s">
         <v>10</v>
       </c>
@@ -7807,7 +7782,7 @@
       <c r="E27" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="152"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="106" t="s">
         <v>29</v>
       </c>
@@ -7819,10 +7794,10 @@
       <c r="K27" s="75"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="145">
+      <c r="B28" s="147">
         <v>14</v>
       </c>
       <c r="C28" s="81" t="s">
@@ -7834,7 +7809,7 @@
       <c r="E28" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="147">
+      <c r="F28" s="149">
         <v>14</v>
       </c>
       <c r="G28" s="81" t="s">
@@ -7846,8 +7821,8 @@
       <c r="K28" s="69"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="88" t="s">
         <v>10</v>
       </c>
@@ -7855,7 +7830,7 @@
       <c r="E29" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="148"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="88" t="s">
         <v>29</v>
       </c>
@@ -7865,10 +7840,10 @@
       <c r="K29" s="72"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="145">
+      <c r="B30" s="147">
         <v>15</v>
       </c>
       <c r="C30" s="81" t="s">
@@ -7878,7 +7853,7 @@
       <c r="E30" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="147">
+      <c r="F30" s="149">
         <v>14</v>
       </c>
       <c r="G30" s="81" t="s">
@@ -7890,8 +7865,8 @@
       <c r="K30" s="69"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="88" t="s">
         <v>10</v>
       </c>
@@ -7899,7 +7874,7 @@
       <c r="E31" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="148"/>
+      <c r="F31" s="150"/>
       <c r="G31" s="88" t="s">
         <v>29</v>
       </c>
@@ -8041,10 +8016,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="155" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="109" t="s">
@@ -8054,7 +8029,7 @@
       <c r="E4" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="155">
+      <c r="F4" s="157">
         <v>14</v>
       </c>
       <c r="G4" s="109" t="s">
@@ -8074,8 +8049,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="114" t="s">
         <v>10</v>
       </c>
@@ -8083,7 +8058,7 @@
       <c r="E5" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="156"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="114" t="s">
         <v>29</v>
       </c>
@@ -8101,10 +8076,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="153">
+      <c r="B6" s="155">
         <v>3</v>
       </c>
       <c r="C6" s="109" t="s">
@@ -8114,7 +8089,7 @@
       <c r="E6" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="155">
+      <c r="F6" s="157">
         <v>14</v>
       </c>
       <c r="G6" s="109" t="s">
@@ -8134,8 +8109,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="153"/>
-      <c r="B7" s="154"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="114" t="s">
         <v>10</v>
       </c>
@@ -8143,7 +8118,7 @@
       <c r="E7" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="156"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="114" t="s">
         <v>29</v>
       </c>
@@ -8161,10 +8136,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="153">
+      <c r="B8" s="155">
         <v>4</v>
       </c>
       <c r="C8" s="109" t="s">
@@ -8174,7 +8149,7 @@
       <c r="E8" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="155">
+      <c r="F8" s="157">
         <v>14</v>
       </c>
       <c r="G8" s="109" t="s">
@@ -8194,8 +8169,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="114" t="s">
         <v>10</v>
       </c>
@@ -8203,7 +8178,7 @@
       <c r="E9" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="156"/>
+      <c r="F9" s="158"/>
       <c r="G9" s="114" t="s">
         <v>29</v>
       </c>
@@ -8221,10 +8196,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="153">
+      <c r="B10" s="155">
         <v>5</v>
       </c>
       <c r="C10" s="109" t="s">
@@ -8234,7 +8209,7 @@
       <c r="E10" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="155">
+      <c r="F10" s="157">
         <v>14</v>
       </c>
       <c r="G10" s="109" t="s">
@@ -8254,8 +8229,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="114" t="s">
         <v>10</v>
       </c>
@@ -8263,7 +8238,7 @@
       <c r="E11" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="156"/>
+      <c r="F11" s="158"/>
       <c r="G11" s="114" t="s">
         <v>29</v>
       </c>
@@ -8281,10 +8256,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="153">
+      <c r="B12" s="155">
         <v>6</v>
       </c>
       <c r="C12" s="109" t="s">
@@ -8294,7 +8269,7 @@
       <c r="E12" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="155">
+      <c r="F12" s="157">
         <v>14</v>
       </c>
       <c r="G12" s="109" t="s">
@@ -8314,8 +8289,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="153"/>
-      <c r="B13" s="154"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="114" t="s">
         <v>10</v>
       </c>
@@ -8323,7 +8298,7 @@
       <c r="E13" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="156"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="114" t="s">
         <v>29</v>
       </c>
@@ -8341,10 +8316,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="153">
+      <c r="B14" s="155">
         <v>7</v>
       </c>
       <c r="C14" s="109" t="s">
@@ -8354,7 +8329,7 @@
       <c r="E14" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="155">
+      <c r="F14" s="157">
         <v>14</v>
       </c>
       <c r="G14" s="109" t="s">
@@ -8374,8 +8349,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="114" t="s">
         <v>10</v>
       </c>
@@ -8383,7 +8358,7 @@
       <c r="E15" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="156"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="114" t="s">
         <v>29</v>
       </c>
@@ -8401,10 +8376,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="153" t="s">
+      <c r="A16" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="153">
+      <c r="B16" s="155">
         <v>8</v>
       </c>
       <c r="C16" s="109" t="s">
@@ -8414,7 +8389,7 @@
       <c r="E16" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="155">
+      <c r="F16" s="157">
         <v>14</v>
       </c>
       <c r="G16" s="121" t="s">
@@ -8434,8 +8409,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="153"/>
-      <c r="B17" s="154"/>
+      <c r="A17" s="155"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="114" t="s">
         <v>10</v>
       </c>
@@ -8443,7 +8418,7 @@
       <c r="E17" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="156"/>
+      <c r="F17" s="158"/>
       <c r="G17" s="122" t="s">
         <v>29</v>
       </c>
@@ -8461,10 +8436,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="153">
+      <c r="B18" s="155">
         <v>9</v>
       </c>
       <c r="C18" s="109" t="s">
@@ -8474,7 +8449,7 @@
       <c r="E18" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="155">
+      <c r="F18" s="157">
         <v>14</v>
       </c>
       <c r="G18" s="109" t="s">
@@ -8494,8 +8469,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="155"/>
+      <c r="B19" s="156"/>
       <c r="C19" s="114" t="s">
         <v>10</v>
       </c>
@@ -8503,7 +8478,7 @@
       <c r="E19" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="156"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="114" t="s">
         <v>29</v>
       </c>
@@ -8521,10 +8496,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="153">
+      <c r="B20" s="155">
         <v>10</v>
       </c>
       <c r="C20" s="109" t="s">
@@ -8534,7 +8509,7 @@
       <c r="E20" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="155">
+      <c r="F20" s="157">
         <v>14</v>
       </c>
       <c r="G20" s="109" t="s">
@@ -8554,8 +8529,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="153"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="114" t="s">
         <v>10</v>
       </c>
@@ -8563,7 +8538,7 @@
       <c r="E21" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="156"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="114" t="s">
         <v>29</v>
       </c>
@@ -8581,10 +8556,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="153" t="s">
+      <c r="A22" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="153">
+      <c r="B22" s="155">
         <v>11</v>
       </c>
       <c r="C22" s="109" t="s">
@@ -8594,7 +8569,7 @@
       <c r="E22" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="155">
+      <c r="F22" s="157">
         <v>14</v>
       </c>
       <c r="G22" s="109" t="s">
@@ -8614,8 +8589,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154"/>
+      <c r="A23" s="155"/>
+      <c r="B23" s="156"/>
       <c r="C23" s="114" t="s">
         <v>10</v>
       </c>
@@ -8623,7 +8598,7 @@
       <c r="E23" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="156"/>
+      <c r="F23" s="158"/>
       <c r="G23" s="114" t="s">
         <v>29</v>
       </c>
@@ -8641,10 +8616,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="153">
+      <c r="B24" s="155">
         <v>12</v>
       </c>
       <c r="C24" s="109" t="s">
@@ -8654,7 +8629,7 @@
       <c r="E24" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="155">
+      <c r="F24" s="157">
         <v>14</v>
       </c>
       <c r="G24" s="109" t="s">
@@ -8674,8 +8649,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="153"/>
-      <c r="B25" s="154"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="114" t="s">
         <v>10</v>
       </c>
@@ -8683,7 +8658,7 @@
       <c r="E25" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="156"/>
+      <c r="F25" s="158"/>
       <c r="G25" s="114" t="s">
         <v>29</v>
       </c>
@@ -8701,10 +8676,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="153">
+      <c r="B26" s="155">
         <v>13</v>
       </c>
       <c r="C26" s="109" t="s">
@@ -8714,7 +8689,7 @@
       <c r="E26" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="155">
+      <c r="F26" s="157">
         <v>14</v>
       </c>
       <c r="G26" s="109" t="s">
@@ -8734,8 +8709,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="153"/>
-      <c r="B27" s="154"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="156"/>
       <c r="C27" s="114" t="s">
         <v>10</v>
       </c>
@@ -8743,7 +8718,7 @@
       <c r="E27" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="156"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="114" t="s">
         <v>29</v>
       </c>
@@ -8761,10 +8736,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="153">
+      <c r="B28" s="155">
         <v>14</v>
       </c>
       <c r="C28" s="109" t="s">
@@ -8776,7 +8751,7 @@
       <c r="E28" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="155">
+      <c r="F28" s="157">
         <v>14</v>
       </c>
       <c r="G28" s="109" t="s">
@@ -8796,8 +8771,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="153"/>
-      <c r="B29" s="154"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="114" t="s">
         <v>10</v>
       </c>
@@ -8805,7 +8780,7 @@
       <c r="E29" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="156"/>
+      <c r="F29" s="158"/>
       <c r="G29" s="114" t="s">
         <v>29</v>
       </c>
@@ -8823,10 +8798,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="153">
+      <c r="B30" s="155">
         <v>15</v>
       </c>
       <c r="C30" s="109" t="s">
@@ -8836,7 +8811,7 @@
       <c r="E30" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="155">
+      <c r="F30" s="157">
         <v>14</v>
       </c>
       <c r="G30" s="109" t="s">
@@ -8856,8 +8831,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="153"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="114" t="s">
         <v>10</v>
       </c>
@@ -8865,7 +8840,7 @@
       <c r="E31" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="156"/>
+      <c r="F31" s="158"/>
       <c r="G31" s="114" t="s">
         <v>29</v>
       </c>
